--- a/Resource/excel/P-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/P-配置列表-(框架维护,请勿修改).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>描述说明</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>constant</t>
-  </si>
-  <si>
-    <t>./config/constant.xml</t>
   </si>
   <si>
     <t>掉落配置表</t>
@@ -415,6 +412,35 @@
   </si>
   <si>
     <t>./config/countcost.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frameconstant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>constant.xml</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -445,6 +471,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -523,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +597,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,7 +994,7 @@
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1775,10 +1811,10 @@
         <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -1795,16 +1831,16 @@
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
@@ -1821,16 +1857,16 @@
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
@@ -1847,16 +1883,16 @@
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
@@ -1873,16 +1909,16 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
@@ -1899,16 +1935,16 @@
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
@@ -1925,16 +1961,16 @@
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
@@ -1957,10 +1993,10 @@
         <v>58</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
@@ -1978,5 +2014,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/P-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/P-配置列表-(框架维护,请勿修改).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>描述说明</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>filter</t>
-  </si>
-  <si>
-    <t>./config/filter.xml</t>
   </si>
   <si>
     <t>属性定义配置表</t>
@@ -440,6 +437,35 @@
         <charset val="134"/>
       </rPr>
       <t>constant.xml</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>framefilter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filter.xml</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -977,7 +1003,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,7 +1020,7 @@
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1395,10 +1421,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1410,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -1441,16 +1467,16 @@
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -1467,16 +1493,16 @@
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -1493,16 +1519,16 @@
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
@@ -1519,16 +1545,16 @@
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1545,16 +1571,16 @@
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -1571,16 +1597,16 @@
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
@@ -1597,16 +1623,16 @@
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -1623,16 +1649,16 @@
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
@@ -1649,16 +1675,16 @@
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -1675,16 +1701,16 @@
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
@@ -1701,16 +1727,16 @@
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -1727,16 +1753,16 @@
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
@@ -1753,16 +1779,16 @@
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="E31" s="9">
         <v>1</v>
@@ -1779,16 +1805,16 @@
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
@@ -1805,16 +1831,16 @@
     </row>
     <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="C33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -1831,16 +1857,16 @@
     </row>
     <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
@@ -1857,16 +1883,16 @@
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
@@ -1883,16 +1909,16 @@
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
@@ -1909,16 +1935,16 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
@@ -1935,16 +1961,16 @@
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
@@ -1961,16 +1987,16 @@
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
@@ -1987,16 +2013,16 @@
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
